--- a/programmatics/FakenewsSprintStoryBook.xlsx
+++ b/programmatics/FakenewsSprintStoryBook.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacques\Documents\DAEN 690 612\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sosaja\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="7635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="11565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>Assigned To</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>Determine whether Journal in Blackboard or GitHub mechanisms will be used for managing tasks/stories.</t>
+  </si>
+  <si>
+    <t>1. Identify terms for analysis, e.g. bias, fact, opinion, pedigree of source</t>
+  </si>
+  <si>
+    <t>2. Establish weightings and scales for these terms, e.g. 1-10 bias, but 1-100 for facts</t>
+  </si>
+  <si>
+    <t>3. Identify if these terms are immutable or user preference, e.g. where on the bias scale am I, but facts are facts</t>
+  </si>
+  <si>
+    <t>4. Identify current research to support the above items. Look at fraud and deception as similar topics.</t>
   </si>
 </sst>
 </file>
@@ -513,11 +525,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,64 +588,56 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B16" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -643,7 +647,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,59 +656,56 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>36</v>
+      <c r="D21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>37</v>
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>20</v>
+      <c r="C24" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>26</v>
+      <c r="E25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>20</v>
+      <c r="C26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
+      <c r="E27" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>20</v>
+      <c r="C28" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
+      <c r="E29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -714,7 +715,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -724,7 +725,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,48 +734,99 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>5</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
         <v>20</v>
       </c>
     </row>
